--- a/2-Fixtures.xlsx
+++ b/2-Fixtures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\Desktop\SquashResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9887F25-8381-4FA9-8C25-AB832CF11B44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44C1159-A517-4ABF-BD81-844E19669AD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8892" yWindow="1620" windowWidth="13752" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
   <si>
     <t>Brock</t>
   </si>
@@ -95,6 +95,48 @@
   </si>
   <si>
     <t>RC</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>HOME TEAM</t>
+  </si>
+  <si>
+    <t>AWAY TEAM</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>VENUE</t>
+  </si>
+  <si>
+    <t>FIXTURE</t>
+  </si>
+  <si>
+    <t>WO 6</t>
+  </si>
+  <si>
+    <t>YMCA 1</t>
+  </si>
+  <si>
+    <t>BAC 3</t>
+  </si>
+  <si>
+    <t>Ridley 3</t>
+  </si>
+  <si>
+    <t>Ridley</t>
+  </si>
+  <si>
+    <t>Women's Division</t>
   </si>
 </sst>
 </file>
@@ -104,8 +146,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,10 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,155 +469,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1">
-        <v>43515</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1">
-        <v>43516</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="F5" s="1">
+        <v>43375</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43375</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43382</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
-        <v>43517</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43382</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43389</v>
+      </c>
+      <c r="G9" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43389</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43375</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43518</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43516</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43382</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43375</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43382</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1">
-        <v>43517</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F27" s="1">
+        <v>43375</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>43382</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H28" t="s">
         <v>5</v>
       </c>
     </row>
